--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_summary_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_summary_Lineal_Estacionario_ARMA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Modelo</t>
   </si>
@@ -43,21 +43,21 @@
     <t>DeepAR</t>
   </si>
   <si>
+    <t>Block Bootstrapping</t>
+  </si>
+  <si>
+    <t>AREPD</t>
+  </si>
+  <si>
+    <t>LSPM</t>
+  </si>
+  <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
     <t>Sieve Bootstrap</t>
   </si>
   <si>
-    <t>AREPD</t>
-  </si>
-  <si>
-    <t>Block Bootstrapping</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
-  </si>
-  <si>
-    <t>LSPM</t>
-  </si>
-  <si>
     <t>6/10</t>
   </si>
   <si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>3/10</t>
+  </si>
+  <si>
+    <t>2/10</t>
   </si>
   <si>
     <t>1/10</t>
@@ -490,10 +493,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>102.4</v>
+        <v>76.8</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -507,10 +510,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>76.8</v>
+        <v>51.2</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -524,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>25.6</v>
@@ -533,7 +536,7 @@
         <v>200</v>
       </c>
       <c r="E6">
-        <v>0.5327762422047049</v>
+        <v>0.8531623364799357</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -541,7 +544,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -558,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -567,7 +570,7 @@
         <v>200</v>
       </c>
       <c r="E8">
-        <v>0.8531623364799357</v>
+        <v>0.7552480947305171</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -575,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -592,7 +595,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -601,7 +604,7 @@
         <v>200</v>
       </c>
       <c r="E10">
-        <v>0.7552480947305171</v>
+        <v>0.5327762422047049</v>
       </c>
     </row>
   </sheetData>
